--- a/Cognizant.IPL.Dashboard/Models/DatabaseSchema.xlsx
+++ b/Cognizant.IPL.Dashboard/Models/DatabaseSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="smart_truck_incident" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -101,13 +101,16 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>incidentTimestamp</t>
+  </si>
+  <si>
+    <t>resolvedTimestamp</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1202,13 +1205,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1312,7 +1317,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1321,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1338,7 +1343,24 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
